--- a/Rating/Tabla FIDE - Clasificación Mundial de Ajedrez.xlsx
+++ b/Rating/Tabla FIDE - Clasificación Mundial de Ajedrez.xlsx
@@ -1,17 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub-ISPC\Proyecto-Gama\VUUZO5_Proyecto_Integrador\VUUZO5_Proyecto_Integrador\Rating\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18BC0E91-9707-44A9-A3FF-0666C1B1EF3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Hoja 1" sheetId="1" r:id="rId4"/>
+    <sheet name="Hoja 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="136">
   <si>
     <t>Rating</t>
   </si>
@@ -416,28 +435,31 @@
   </si>
   <si>
     <t>Abasov, Nijat</t>
+  </si>
+  <si>
+    <t>Year</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color rgb="FFF3F3F3"/>
       <name val="Source Sans Pro"/>
     </font>
     <font>
       <b/>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color rgb="FF0B5394"/>
       <name val="Source Sans Pro"/>
     </font>
@@ -447,7 +469,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -463,7 +485,13 @@
     </fill>
   </fills>
   <borders count="2">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -477,38 +505,39 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -698,23 +727,29 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:F103"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
+      <selection activeCell="J81" sqref="J81"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="24.0"/>
+    <col min="2" max="2" width="24" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -730,27 +765,34 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2">
+      <c r="F1" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="B2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D2" s="2">
-        <v>2859.0</v>
+        <v>2859</v>
       </c>
       <c r="E2" s="2">
-        <v>1990.0</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>1990</v>
+      </c>
+      <c r="F2" s="2">
+        <f ca="1">YEAR(TODAY())-E2</f>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>7</v>
@@ -759,15 +801,19 @@
         <v>8</v>
       </c>
       <c r="D3" s="2">
-        <v>2811.0</v>
+        <v>2811</v>
       </c>
       <c r="E3" s="2">
-        <v>1992.0</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>1992</v>
+      </c>
+      <c r="F3" s="2">
+        <f t="shared" ref="F3:F66" ca="1" si="0">YEAR(TODAY())-E3</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>9</v>
@@ -776,134 +822,166 @@
         <v>10</v>
       </c>
       <c r="D4" s="2">
-        <v>2793.0</v>
+        <v>2793</v>
       </c>
       <c r="E4" s="2">
-        <v>1990.0</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>1990</v>
+      </c>
+      <c r="F4" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
-        <v>4.0</v>
-      </c>
-      <c r="B5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D5" s="2">
-        <v>2785.0</v>
+        <v>2785</v>
       </c>
       <c r="E5" s="2">
-        <v>2003.0</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>2003</v>
+      </c>
+      <c r="F5" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
-        <v>5.0</v>
-      </c>
-      <c r="B6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D6" s="2">
-        <v>2768.0</v>
+        <v>2768</v>
       </c>
       <c r="E6" s="2">
-        <v>1987.0</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>1987</v>
+      </c>
+      <c r="F6" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
-        <v>6.0</v>
-      </c>
-      <c r="B7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D7" s="2">
-        <v>2766.0</v>
+        <v>2766</v>
       </c>
       <c r="E7" s="2">
-        <v>1992.0</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>1992</v>
+      </c>
+      <c r="F7" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
-        <v>7.0</v>
-      </c>
-      <c r="B8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D8" s="2">
-        <v>2764.0</v>
+        <v>2764</v>
       </c>
       <c r="E8" s="2">
-        <v>1994.0</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>1994</v>
+      </c>
+      <c r="F8" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
-        <v>8.0</v>
-      </c>
-      <c r="B9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D9" s="2">
-        <v>2760.0</v>
+        <v>2760</v>
       </c>
       <c r="E9" s="2">
-        <v>1993.0</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>1993</v>
+      </c>
+      <c r="F9" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
-        <v>9.0</v>
-      </c>
-      <c r="B10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D10" s="2">
-        <v>2754.0</v>
+        <v>2754</v>
       </c>
       <c r="E10" s="2">
-        <v>1969.0</v>
-      </c>
-    </row>
-    <row r="11">
+        <v>1969</v>
+      </c>
+      <c r="F10" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
-        <v>10.0</v>
-      </c>
-      <c r="B11" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D11" s="2">
-        <v>2747.0</v>
+        <v>2747</v>
       </c>
       <c r="E11" s="2">
-        <v>1990.0</v>
-      </c>
-    </row>
-    <row r="12">
+        <v>1990</v>
+      </c>
+      <c r="F11" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>22</v>
@@ -912,15 +990,19 @@
         <v>23</v>
       </c>
       <c r="D12" s="2">
-        <v>2747.0</v>
+        <v>2747</v>
       </c>
       <c r="E12" s="2">
-        <v>1987.0</v>
-      </c>
-    </row>
-    <row r="13">
+        <v>1987</v>
+      </c>
+      <c r="F12" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>24</v>
@@ -929,15 +1011,19 @@
         <v>10</v>
       </c>
       <c r="D13" s="2">
-        <v>2745.0</v>
+        <v>2745</v>
       </c>
       <c r="E13" s="2">
-        <v>1983.0</v>
-      </c>
-    </row>
-    <row r="14">
+        <v>1983</v>
+      </c>
+      <c r="F13" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>25</v>
@@ -946,15 +1032,19 @@
         <v>14</v>
       </c>
       <c r="D14" s="2">
-        <v>2743.0</v>
+        <v>2743</v>
       </c>
       <c r="E14" s="2">
-        <v>1983.0</v>
-      </c>
-    </row>
-    <row r="15">
+        <v>1983</v>
+      </c>
+      <c r="F14" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>26</v>
@@ -963,15 +1053,19 @@
         <v>23</v>
       </c>
       <c r="D15" s="2">
-        <v>2741.0</v>
+        <v>2741</v>
       </c>
       <c r="E15" s="2">
-        <v>1985.0</v>
-      </c>
-    </row>
-    <row r="16">
+        <v>1985</v>
+      </c>
+      <c r="F15" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>27</v>
@@ -980,15 +1074,19 @@
         <v>28</v>
       </c>
       <c r="D16" s="2">
-        <v>2740.0</v>
+        <v>2740</v>
       </c>
       <c r="E16" s="2">
-        <v>1996.0</v>
-      </c>
-    </row>
-    <row r="17">
+        <v>1996</v>
+      </c>
+      <c r="F16" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>29</v>
@@ -997,15 +1095,19 @@
         <v>12</v>
       </c>
       <c r="D17" s="2">
-        <v>2736.0</v>
+        <v>2736</v>
       </c>
       <c r="E17" s="2">
-        <v>1990.0</v>
-      </c>
-    </row>
-    <row r="18">
+        <v>1990</v>
+      </c>
+      <c r="F17" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>30</v>
@@ -1014,15 +1116,19 @@
         <v>14</v>
       </c>
       <c r="D18" s="2">
-        <v>2735.0</v>
+        <v>2735</v>
       </c>
       <c r="E18" s="2">
-        <v>1982.0</v>
-      </c>
-    </row>
-    <row r="19">
+        <v>1982</v>
+      </c>
+      <c r="F18" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
-        <v>18.0</v>
+        <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>31</v>
@@ -1031,15 +1137,19 @@
         <v>32</v>
       </c>
       <c r="D19" s="2">
-        <v>2731.0</v>
+        <v>2731</v>
       </c>
       <c r="E19" s="2">
-        <v>1998.0</v>
-      </c>
-    </row>
-    <row r="20">
+        <v>1998</v>
+      </c>
+      <c r="F19" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
-        <v>19.0</v>
+        <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>33</v>
@@ -1048,15 +1158,19 @@
         <v>34</v>
       </c>
       <c r="D20" s="2">
-        <v>2729.0</v>
+        <v>2729</v>
       </c>
       <c r="E20" s="2">
-        <v>1990.0</v>
-      </c>
-    </row>
-    <row r="21">
+        <v>1990</v>
+      </c>
+      <c r="F20" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>35</v>
@@ -1065,15 +1179,19 @@
         <v>36</v>
       </c>
       <c r="D21" s="2">
-        <v>2728.0</v>
+        <v>2728</v>
       </c>
       <c r="E21" s="2">
-        <v>1991.0</v>
-      </c>
-    </row>
-    <row r="22">
+        <v>1991</v>
+      </c>
+      <c r="F21" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
-        <v>21.0</v>
+        <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>37</v>
@@ -1082,15 +1200,19 @@
         <v>38</v>
       </c>
       <c r="D22" s="2">
-        <v>2728.0</v>
+        <v>2728</v>
       </c>
       <c r="E22" s="2">
-        <v>1975.0</v>
-      </c>
-    </row>
-    <row r="23">
+        <v>1975</v>
+      </c>
+      <c r="F22" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
-        <v>22.0</v>
+        <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>39</v>
@@ -1099,15 +1221,19 @@
         <v>34</v>
       </c>
       <c r="D23" s="2">
-        <v>2726.0</v>
+        <v>2726</v>
       </c>
       <c r="E23" s="2">
-        <v>1987.0</v>
-      </c>
-    </row>
-    <row r="24">
+        <v>1987</v>
+      </c>
+      <c r="F23" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
-        <v>23.0</v>
+        <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>40</v>
@@ -1116,15 +1242,19 @@
         <v>20</v>
       </c>
       <c r="D24" s="2">
-        <v>2725.0</v>
+        <v>2725</v>
       </c>
       <c r="E24" s="2">
-        <v>2006.0</v>
-      </c>
-    </row>
-    <row r="25">
+        <v>2006</v>
+      </c>
+      <c r="F24" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
-        <v>24.0</v>
+        <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>41</v>
@@ -1133,15 +1263,19 @@
         <v>20</v>
       </c>
       <c r="D25" s="2">
-        <v>2724.0</v>
+        <v>2724</v>
       </c>
       <c r="E25" s="2">
-        <v>1994.0</v>
-      </c>
-    </row>
-    <row r="26">
+        <v>1994</v>
+      </c>
+      <c r="F25" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
-        <v>25.0</v>
+        <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>42</v>
@@ -1150,15 +1284,19 @@
         <v>8</v>
       </c>
       <c r="D26" s="2">
-        <v>2722.0</v>
+        <v>2722</v>
       </c>
       <c r="E26" s="2">
-        <v>1989.0</v>
-      </c>
-    </row>
-    <row r="27">
+        <v>1989</v>
+      </c>
+      <c r="F26" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
-        <v>26.0</v>
+        <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>43</v>
@@ -1167,15 +1305,19 @@
         <v>8</v>
       </c>
       <c r="D27" s="2">
-        <v>2722.0</v>
+        <v>2722</v>
       </c>
       <c r="E27" s="2">
-        <v>1999.0</v>
-      </c>
-    </row>
-    <row r="28">
+        <v>1999</v>
+      </c>
+      <c r="F27" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
-        <v>27.0</v>
+        <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>44</v>
@@ -1184,15 +1326,19 @@
         <v>45</v>
       </c>
       <c r="D28" s="2">
-        <v>2720.0</v>
+        <v>2720</v>
       </c>
       <c r="E28" s="2">
-        <v>2000.0</v>
-      </c>
-    </row>
-    <row r="29">
+        <v>2000</v>
+      </c>
+      <c r="F28" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
-        <v>28.0</v>
+        <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>46</v>
@@ -1201,15 +1347,19 @@
         <v>20</v>
       </c>
       <c r="D29" s="2">
-        <v>2718.0</v>
+        <v>2718</v>
       </c>
       <c r="E29" s="2">
-        <v>2003.0</v>
-      </c>
-    </row>
-    <row r="30">
+        <v>2003</v>
+      </c>
+      <c r="F29" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
-        <v>29.0</v>
+        <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>47</v>
@@ -1218,15 +1368,19 @@
         <v>8</v>
       </c>
       <c r="D30" s="2">
-        <v>2716.0</v>
+        <v>2716</v>
       </c>
       <c r="E30" s="2">
-        <v>1994.0</v>
-      </c>
-    </row>
-    <row r="31">
+        <v>1994</v>
+      </c>
+      <c r="F30" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>48</v>
@@ -1235,15 +1389,19 @@
         <v>49</v>
       </c>
       <c r="D31" s="2">
-        <v>2716.0</v>
+        <v>2716</v>
       </c>
       <c r="E31" s="2">
-        <v>1982.0</v>
-      </c>
-    </row>
-    <row r="32">
+        <v>1982</v>
+      </c>
+      <c r="F31" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
-        <v>31.0</v>
+        <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>50</v>
@@ -1252,15 +1410,19 @@
         <v>20</v>
       </c>
       <c r="D32" s="2">
-        <v>2715.0</v>
+        <v>2715</v>
       </c>
       <c r="E32" s="2">
-        <v>1986.0</v>
-      </c>
-    </row>
-    <row r="33">
+        <v>1986</v>
+      </c>
+      <c r="F32" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
-        <v>32.0</v>
+        <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>51</v>
@@ -1269,15 +1431,19 @@
         <v>52</v>
       </c>
       <c r="D33" s="2">
-        <v>2713.0</v>
+        <v>2713</v>
       </c>
       <c r="E33" s="2">
-        <v>2004.0</v>
-      </c>
-    </row>
-    <row r="34">
+        <v>2004</v>
+      </c>
+      <c r="F33" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
-        <v>33.0</v>
+        <v>33</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>53</v>
@@ -1286,15 +1452,19 @@
         <v>10</v>
       </c>
       <c r="D34" s="2">
-        <v>2712.0</v>
+        <v>2712</v>
       </c>
       <c r="E34" s="2">
-        <v>1993.0</v>
-      </c>
-    </row>
-    <row r="35">
+        <v>1993</v>
+      </c>
+      <c r="F34" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
-        <v>34.0</v>
+        <v>34</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>54</v>
@@ -1303,15 +1473,19 @@
         <v>14</v>
       </c>
       <c r="D35" s="2">
-        <v>2710.0</v>
+        <v>2710</v>
       </c>
       <c r="E35" s="2">
-        <v>1991.0</v>
-      </c>
-    </row>
-    <row r="36">
+        <v>1991</v>
+      </c>
+      <c r="F35" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
-        <v>35.0</v>
+        <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>55</v>
@@ -1320,15 +1494,19 @@
         <v>10</v>
       </c>
       <c r="D36" s="2">
-        <v>2708.0</v>
+        <v>2708</v>
       </c>
       <c r="E36" s="2">
-        <v>1996.0</v>
-      </c>
-    </row>
-    <row r="37">
+        <v>1996</v>
+      </c>
+      <c r="F36" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
-        <v>36.0</v>
+        <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>56</v>
@@ -1337,15 +1515,19 @@
         <v>57</v>
       </c>
       <c r="D37" s="2">
-        <v>2706.0</v>
+        <v>2706</v>
       </c>
       <c r="E37" s="2">
-        <v>1983.0</v>
-      </c>
-    </row>
-    <row r="38">
+        <v>1983</v>
+      </c>
+      <c r="F37" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
-        <v>37.0</v>
+        <v>37</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>58</v>
@@ -1354,15 +1536,19 @@
         <v>14</v>
       </c>
       <c r="D38" s="2">
-        <v>2702.0</v>
+        <v>2702</v>
       </c>
       <c r="E38" s="2">
-        <v>1994.0</v>
-      </c>
-    </row>
-    <row r="39">
+        <v>1994</v>
+      </c>
+      <c r="F38" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
-        <v>38.0</v>
+        <v>38</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>59</v>
@@ -1371,15 +1557,19 @@
         <v>10</v>
       </c>
       <c r="D39" s="2">
-        <v>2701.0</v>
+        <v>2701</v>
       </c>
       <c r="E39" s="2">
-        <v>1998.0</v>
-      </c>
-    </row>
-    <row r="40">
+        <v>1998</v>
+      </c>
+      <c r="F39" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
-        <v>39.0</v>
+        <v>39</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>60</v>
@@ -1388,15 +1578,19 @@
         <v>28</v>
       </c>
       <c r="D40" s="2">
-        <v>2700.0</v>
+        <v>2700</v>
       </c>
       <c r="E40" s="2">
-        <v>2001.0</v>
-      </c>
-    </row>
-    <row r="41">
+        <v>2001</v>
+      </c>
+      <c r="F40" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
-        <v>40.0</v>
+        <v>40</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>61</v>
@@ -1405,15 +1599,19 @@
         <v>14</v>
       </c>
       <c r="D41" s="2">
-        <v>2699.0</v>
+        <v>2699</v>
       </c>
       <c r="E41" s="2">
-        <v>2003.0</v>
-      </c>
-    </row>
-    <row r="42">
+        <v>2003</v>
+      </c>
+      <c r="F41" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
-        <v>41.0</v>
+        <v>41</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>62</v>
@@ -1422,15 +1620,19 @@
         <v>63</v>
       </c>
       <c r="D42" s="2">
-        <v>2699.0</v>
+        <v>2699</v>
       </c>
       <c r="E42" s="2">
-        <v>1983.0</v>
-      </c>
-    </row>
-    <row r="43">
+        <v>1983</v>
+      </c>
+      <c r="F42" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
-        <v>42.0</v>
+        <v>42</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>64</v>
@@ -1439,15 +1641,19 @@
         <v>65</v>
       </c>
       <c r="D43" s="2">
-        <v>2698.0</v>
+        <v>2698</v>
       </c>
       <c r="E43" s="2">
-        <v>2004.0</v>
-      </c>
-    </row>
-    <row r="44">
+        <v>2004</v>
+      </c>
+      <c r="F43" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
-        <v>43.0</v>
+        <v>43</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>66</v>
@@ -1456,15 +1662,19 @@
         <v>8</v>
       </c>
       <c r="D44" s="2">
-        <v>2698.0</v>
+        <v>2698</v>
       </c>
       <c r="E44" s="2">
-        <v>1985.0</v>
-      </c>
-    </row>
-    <row r="45">
+        <v>1985</v>
+      </c>
+      <c r="F44" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
-        <v>44.0</v>
+        <v>44</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>67</v>
@@ -1473,15 +1683,19 @@
         <v>38</v>
       </c>
       <c r="D45" s="2">
-        <v>2694.0</v>
+        <v>2694</v>
       </c>
       <c r="E45" s="2">
-        <v>1986.0</v>
-      </c>
-    </row>
-    <row r="46">
+        <v>1986</v>
+      </c>
+      <c r="F45" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
-        <v>45.0</v>
+        <v>45</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>68</v>
@@ -1490,15 +1704,19 @@
         <v>10</v>
       </c>
       <c r="D46" s="2">
-        <v>2694.0</v>
+        <v>2694</v>
       </c>
       <c r="E46" s="2">
-        <v>1987.0</v>
-      </c>
-    </row>
-    <row r="47">
+        <v>1987</v>
+      </c>
+      <c r="F46" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
-        <v>46.0</v>
+        <v>46</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>69</v>
@@ -1507,15 +1725,19 @@
         <v>14</v>
       </c>
       <c r="D47" s="2">
-        <v>2692.0</v>
+        <v>2692</v>
       </c>
       <c r="E47" s="2">
-        <v>2000.0</v>
-      </c>
-    </row>
-    <row r="48">
+        <v>2000</v>
+      </c>
+      <c r="F47" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
-        <v>47.0</v>
+        <v>47</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>70</v>
@@ -1524,15 +1746,19 @@
         <v>17</v>
       </c>
       <c r="D48" s="2">
-        <v>2690.0</v>
+        <v>2690</v>
       </c>
       <c r="E48" s="2">
-        <v>1999.0</v>
-      </c>
-    </row>
-    <row r="49">
+        <v>1999</v>
+      </c>
+      <c r="F48" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
-        <v>48.0</v>
+        <v>48</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>71</v>
@@ -1541,15 +1767,19 @@
         <v>34</v>
       </c>
       <c r="D49" s="2">
-        <v>2688.0</v>
+        <v>2688</v>
       </c>
       <c r="E49" s="2">
-        <v>1995.0</v>
-      </c>
-    </row>
-    <row r="50">
+        <v>1995</v>
+      </c>
+      <c r="F49" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
-        <v>49.0</v>
+        <v>49</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>72</v>
@@ -1558,15 +1788,19 @@
         <v>14</v>
       </c>
       <c r="D50" s="2">
-        <v>2687.0</v>
+        <v>2687</v>
       </c>
       <c r="E50" s="2">
-        <v>2000.0</v>
-      </c>
-    </row>
-    <row r="51">
+        <v>2000</v>
+      </c>
+      <c r="F50" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
-        <v>50.0</v>
+        <v>50</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>73</v>
@@ -1575,15 +1809,19 @@
         <v>34</v>
       </c>
       <c r="D51" s="2">
-        <v>2687.0</v>
+        <v>2687</v>
       </c>
       <c r="E51" s="2">
-        <v>1997.0</v>
-      </c>
-    </row>
-    <row r="52">
+        <v>1997</v>
+      </c>
+      <c r="F51" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
-        <v>51.0</v>
+        <v>51</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>74</v>
@@ -1592,15 +1830,19 @@
         <v>57</v>
       </c>
       <c r="D52" s="2">
-        <v>2687.0</v>
+        <v>2687</v>
       </c>
       <c r="E52" s="2">
-        <v>1996.0</v>
-      </c>
-    </row>
-    <row r="53">
+        <v>1996</v>
+      </c>
+      <c r="F52" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
-        <v>52.0</v>
+        <v>52</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>75</v>
@@ -1609,15 +1851,19 @@
         <v>32</v>
       </c>
       <c r="D53" s="2">
-        <v>2686.0</v>
+        <v>2686</v>
       </c>
       <c r="E53" s="2">
-        <v>1987.0</v>
-      </c>
-    </row>
-    <row r="54">
+        <v>1987</v>
+      </c>
+      <c r="F53" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
-        <v>53.0</v>
+        <v>53</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>76</v>
@@ -1626,15 +1872,19 @@
         <v>77</v>
       </c>
       <c r="D54" s="2">
-        <v>2686.0</v>
+        <v>2686</v>
       </c>
       <c r="E54" s="2">
-        <v>1971.0</v>
-      </c>
-    </row>
-    <row r="55">
+        <v>1971</v>
+      </c>
+      <c r="F54" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
-        <v>54.0</v>
+        <v>54</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>78</v>
@@ -1643,15 +1893,19 @@
         <v>79</v>
       </c>
       <c r="D55" s="2">
-        <v>2685.0</v>
+        <v>2685</v>
       </c>
       <c r="E55" s="2">
-        <v>1988.0</v>
-      </c>
-    </row>
-    <row r="56">
+        <v>1988</v>
+      </c>
+      <c r="F55" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
-        <v>55.0</v>
+        <v>55</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>80</v>
@@ -1660,15 +1914,19 @@
         <v>34</v>
       </c>
       <c r="D56" s="2">
-        <v>2684.0</v>
+        <v>2684</v>
       </c>
       <c r="E56" s="2">
-        <v>1994.0</v>
-      </c>
-    </row>
-    <row r="57">
+        <v>1994</v>
+      </c>
+      <c r="F56" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
-        <v>56.0</v>
+        <v>56</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>81</v>
@@ -1677,15 +1935,19 @@
         <v>14</v>
       </c>
       <c r="D57" s="2">
-        <v>2683.0</v>
+        <v>2683</v>
       </c>
       <c r="E57" s="2">
-        <v>1997.0</v>
-      </c>
-    </row>
-    <row r="58">
+        <v>1997</v>
+      </c>
+      <c r="F57" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
-        <v>57.0</v>
+        <v>57</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>82</v>
@@ -1694,15 +1956,19 @@
         <v>34</v>
       </c>
       <c r="D58" s="2">
-        <v>2683.0</v>
+        <v>2683</v>
       </c>
       <c r="E58" s="2">
-        <v>1976.0</v>
-      </c>
-    </row>
-    <row r="59">
+        <v>1976</v>
+      </c>
+      <c r="F58" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
-        <v>58.0</v>
+        <v>58</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>83</v>
@@ -1711,15 +1977,19 @@
         <v>63</v>
       </c>
       <c r="D59" s="2">
-        <v>2682.0</v>
+        <v>2682</v>
       </c>
       <c r="E59" s="2">
-        <v>2000.0</v>
-      </c>
-    </row>
-    <row r="60">
+        <v>2000</v>
+      </c>
+      <c r="F59" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
-        <v>59.0</v>
+        <v>59</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>84</v>
@@ -1728,15 +1998,19 @@
         <v>10</v>
       </c>
       <c r="D60" s="2">
-        <v>2682.0</v>
+        <v>2682</v>
       </c>
       <c r="E60" s="2">
-        <v>1983.0</v>
-      </c>
-    </row>
-    <row r="61">
+        <v>1983</v>
+      </c>
+      <c r="F60" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
-        <v>60.0</v>
+        <v>60</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>85</v>
@@ -1745,15 +2019,19 @@
         <v>34</v>
       </c>
       <c r="D61" s="2">
-        <v>2680.0</v>
+        <v>2680</v>
       </c>
       <c r="E61" s="2">
-        <v>2002.0</v>
-      </c>
-    </row>
-    <row r="62">
+        <v>2002</v>
+      </c>
+      <c r="F61" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
-        <v>61.0</v>
+        <v>61</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>86</v>
@@ -1762,15 +2040,19 @@
         <v>87</v>
       </c>
       <c r="D62" s="2">
-        <v>2680.0</v>
+        <v>2680</v>
       </c>
       <c r="E62" s="2">
-        <v>1985.0</v>
-      </c>
-    </row>
-    <row r="63">
+        <v>1985</v>
+      </c>
+      <c r="F62" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
-        <v>62.0</v>
+        <v>62</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>88</v>
@@ -1779,15 +2061,19 @@
         <v>20</v>
       </c>
       <c r="D63" s="2">
-        <v>2678.0</v>
+        <v>2678</v>
       </c>
       <c r="E63" s="2">
-        <v>2005.0</v>
-      </c>
-    </row>
-    <row r="64">
+        <v>2005</v>
+      </c>
+      <c r="F63" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
-        <v>63.0</v>
+        <v>63</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>89</v>
@@ -1796,15 +2082,19 @@
         <v>90</v>
       </c>
       <c r="D64" s="2">
-        <v>2677.0</v>
+        <v>2677</v>
       </c>
       <c r="E64" s="2">
-        <v>1976.0</v>
-      </c>
-    </row>
-    <row r="65">
+        <v>1976</v>
+      </c>
+      <c r="F64" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
-        <v>64.0</v>
+        <v>64</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>91</v>
@@ -1813,15 +2103,19 @@
         <v>92</v>
       </c>
       <c r="D65" s="2">
-        <v>2677.0</v>
+        <v>2677</v>
       </c>
       <c r="E65" s="2">
-        <v>1993.0</v>
-      </c>
-    </row>
-    <row r="66">
+        <v>1993</v>
+      </c>
+      <c r="F65" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
-        <v>65.0</v>
+        <v>65</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>93</v>
@@ -1830,15 +2124,19 @@
         <v>12</v>
       </c>
       <c r="D66" s="2">
-        <v>2676.0</v>
+        <v>2676</v>
       </c>
       <c r="E66" s="2">
-        <v>1995.0</v>
-      </c>
-    </row>
-    <row r="67">
+        <v>1995</v>
+      </c>
+      <c r="F66" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
-        <v>66.0</v>
+        <v>66</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>94</v>
@@ -1847,15 +2145,19 @@
         <v>52</v>
       </c>
       <c r="D67" s="2">
-        <v>2676.0</v>
+        <v>2676</v>
       </c>
       <c r="E67" s="2">
-        <v>1979.0</v>
-      </c>
-    </row>
-    <row r="68">
+        <v>1979</v>
+      </c>
+      <c r="F67" s="2">
+        <f t="shared" ref="F67:F103" ca="1" si="1">YEAR(TODAY())-E67</f>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
-        <v>67.0</v>
+        <v>67</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>95</v>
@@ -1864,15 +2166,19 @@
         <v>96</v>
       </c>
       <c r="D68" s="2">
-        <v>2674.0</v>
+        <v>2674</v>
       </c>
       <c r="E68" s="2">
-        <v>1990.0</v>
-      </c>
-    </row>
-    <row r="69">
+        <v>1990</v>
+      </c>
+      <c r="F68" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
-        <v>68.0</v>
+        <v>68</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>97</v>
@@ -1881,15 +2187,19 @@
         <v>57</v>
       </c>
       <c r="D69" s="2">
-        <v>2674.0</v>
+        <v>2674</v>
       </c>
       <c r="E69" s="2">
-        <v>1988.0</v>
-      </c>
-    </row>
-    <row r="70">
+        <v>1988</v>
+      </c>
+      <c r="F69" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
-        <v>69.0</v>
+        <v>69</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>98</v>
@@ -1898,15 +2208,19 @@
         <v>20</v>
       </c>
       <c r="D70" s="2">
-        <v>2673.0</v>
+        <v>2673</v>
       </c>
       <c r="E70" s="2">
-        <v>1998.0</v>
-      </c>
-    </row>
-    <row r="71">
+        <v>1998</v>
+      </c>
+      <c r="F70" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
-        <v>70.0</v>
+        <v>70</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>99</v>
@@ -1915,15 +2229,19 @@
         <v>57</v>
       </c>
       <c r="D71" s="2">
-        <v>2673.0</v>
+        <v>2673</v>
       </c>
       <c r="E71" s="2">
-        <v>1969.0</v>
-      </c>
-    </row>
-    <row r="72">
+        <v>1969</v>
+      </c>
+      <c r="F71" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
-        <v>71.0</v>
+        <v>71</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>100</v>
@@ -1932,15 +2250,19 @@
         <v>8</v>
       </c>
       <c r="D72" s="2">
-        <v>2672.0</v>
+        <v>2672</v>
       </c>
       <c r="E72" s="2">
-        <v>1989.0</v>
-      </c>
-    </row>
-    <row r="73">
+        <v>1989</v>
+      </c>
+      <c r="F72" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
-        <v>72.0</v>
+        <v>72</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>101</v>
@@ -1949,15 +2271,19 @@
         <v>20</v>
       </c>
       <c r="D73" s="2">
-        <v>2670.0</v>
+        <v>2670</v>
       </c>
       <c r="E73" s="2">
-        <v>2004.0</v>
-      </c>
-    </row>
-    <row r="74">
+        <v>2004</v>
+      </c>
+      <c r="F73" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
-        <v>73.0</v>
+        <v>73</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>102</v>
@@ -1966,15 +2292,19 @@
         <v>34</v>
       </c>
       <c r="D74" s="2">
-        <v>2668.0</v>
+        <v>2668</v>
       </c>
       <c r="E74" s="2">
-        <v>2000.0</v>
-      </c>
-    </row>
-    <row r="75">
+        <v>2000</v>
+      </c>
+      <c r="F74" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
-        <v>74.0</v>
+        <v>74</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>103</v>
@@ -1983,15 +2313,19 @@
         <v>49</v>
       </c>
       <c r="D75" s="2">
-        <v>2668.0</v>
+        <v>2668</v>
       </c>
       <c r="E75" s="2">
-        <v>1995.0</v>
-      </c>
-    </row>
-    <row r="76">
+        <v>1995</v>
+      </c>
+      <c r="F75" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
-        <v>75.0</v>
+        <v>75</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>104</v>
@@ -2000,15 +2334,19 @@
         <v>52</v>
       </c>
       <c r="D76" s="2">
-        <v>2667.0</v>
+        <v>2667</v>
       </c>
       <c r="E76" s="2">
-        <v>2002.0</v>
-      </c>
-    </row>
-    <row r="77">
+        <v>2002</v>
+      </c>
+      <c r="F76" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
-        <v>76.0</v>
+        <v>76</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>105</v>
@@ -2017,15 +2355,19 @@
         <v>106</v>
       </c>
       <c r="D77" s="2">
-        <v>2667.0</v>
+        <v>2667</v>
       </c>
       <c r="E77" s="2">
-        <v>1968.0</v>
-      </c>
-    </row>
-    <row r="78">
+        <v>1968</v>
+      </c>
+      <c r="F77" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
-        <v>77.0</v>
+        <v>77</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>107</v>
@@ -2034,15 +2376,19 @@
         <v>77</v>
       </c>
       <c r="D78" s="2">
-        <v>2667.0</v>
+        <v>2667</v>
       </c>
       <c r="E78" s="2">
-        <v>1990.0</v>
-      </c>
-    </row>
-    <row r="79">
+        <v>1990</v>
+      </c>
+      <c r="F78" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
-        <v>78.0</v>
+        <v>78</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>108</v>
@@ -2051,15 +2397,19 @@
         <v>23</v>
       </c>
       <c r="D79" s="2">
-        <v>2667.0</v>
+        <v>2667</v>
       </c>
       <c r="E79" s="2">
-        <v>1985.0</v>
-      </c>
-    </row>
-    <row r="80">
+        <v>1985</v>
+      </c>
+      <c r="F79" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
-        <v>79.0</v>
+        <v>79</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>109</v>
@@ -2068,15 +2418,19 @@
         <v>8</v>
       </c>
       <c r="D80" s="2">
-        <v>2667.0</v>
+        <v>2667</v>
       </c>
       <c r="E80" s="2">
-        <v>1983.0</v>
-      </c>
-    </row>
-    <row r="81">
+        <v>1983</v>
+      </c>
+      <c r="F80" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
-        <v>80.0</v>
+        <v>80</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>110</v>
@@ -2085,15 +2439,19 @@
         <v>49</v>
       </c>
       <c r="D81" s="2">
-        <v>2666.0</v>
+        <v>2666</v>
       </c>
       <c r="E81" s="2">
-        <v>1972.0</v>
-      </c>
-    </row>
-    <row r="82">
+        <v>1972</v>
+      </c>
+      <c r="F81" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
-        <v>81.0</v>
+        <v>81</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>111</v>
@@ -2102,15 +2460,19 @@
         <v>14</v>
       </c>
       <c r="D82" s="2">
-        <v>2666.0</v>
+        <v>2666</v>
       </c>
       <c r="E82" s="2">
-        <v>1974.0</v>
-      </c>
-    </row>
-    <row r="83">
+        <v>1974</v>
+      </c>
+      <c r="F82" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
-        <v>82.0</v>
+        <v>82</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>112</v>
@@ -2119,15 +2481,19 @@
         <v>49</v>
       </c>
       <c r="D83" s="2">
-        <v>2665.0</v>
+        <v>2665</v>
       </c>
       <c r="E83" s="2">
-        <v>1996.0</v>
-      </c>
-    </row>
-    <row r="84">
+        <v>1996</v>
+      </c>
+      <c r="F83" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
-        <v>83.0</v>
+        <v>83</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>113</v>
@@ -2136,15 +2502,19 @@
         <v>57</v>
       </c>
       <c r="D84" s="2">
-        <v>2663.0</v>
+        <v>2663</v>
       </c>
       <c r="E84" s="2">
-        <v>1986.0</v>
-      </c>
-    </row>
-    <row r="85">
+        <v>1986</v>
+      </c>
+      <c r="F84" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
-        <v>84.0</v>
+        <v>84</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>114</v>
@@ -2153,15 +2523,19 @@
         <v>10</v>
       </c>
       <c r="D85" s="2">
-        <v>2662.0</v>
+        <v>2662</v>
       </c>
       <c r="E85" s="2">
-        <v>1977.0</v>
-      </c>
-    </row>
-    <row r="86">
+        <v>1977</v>
+      </c>
+      <c r="F85" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
-        <v>85.0</v>
+        <v>85</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>115</v>
@@ -2170,15 +2544,19 @@
         <v>10</v>
       </c>
       <c r="D86" s="2">
-        <v>2662.0</v>
+        <v>2662</v>
       </c>
       <c r="E86" s="2">
-        <v>1991.0</v>
-      </c>
-    </row>
-    <row r="87">
+        <v>1991</v>
+      </c>
+      <c r="F86" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
-        <v>86.0</v>
+        <v>86</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>116</v>
@@ -2187,15 +2565,19 @@
         <v>23</v>
       </c>
       <c r="D87" s="2">
-        <v>2661.0</v>
+        <v>2661</v>
       </c>
       <c r="E87" s="2">
-        <v>1986.0</v>
-      </c>
-    </row>
-    <row r="88">
+        <v>1986</v>
+      </c>
+      <c r="F87" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="2">
-        <v>87.0</v>
+        <v>87</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>117</v>
@@ -2204,15 +2586,19 @@
         <v>34</v>
       </c>
       <c r="D88" s="2">
-        <v>2661.0</v>
+        <v>2661</v>
       </c>
       <c r="E88" s="2">
-        <v>1985.0</v>
-      </c>
-    </row>
-    <row r="89">
+        <v>1985</v>
+      </c>
+      <c r="F88" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="2">
-        <v>88.0</v>
+        <v>88</v>
       </c>
       <c r="B89" s="2" t="s">
         <v>118</v>
@@ -2221,15 +2607,19 @@
         <v>6</v>
       </c>
       <c r="D89" s="2">
-        <v>2660.0</v>
+        <v>2660</v>
       </c>
       <c r="E89" s="2">
-        <v>1999.0</v>
-      </c>
-    </row>
-    <row r="90">
+        <v>1999</v>
+      </c>
+      <c r="F89" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="2">
-        <v>89.0</v>
+        <v>89</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>119</v>
@@ -2238,15 +2628,19 @@
         <v>57</v>
       </c>
       <c r="D90" s="2">
-        <v>2659.0</v>
+        <v>2659</v>
       </c>
       <c r="E90" s="2">
-        <v>1985.0</v>
-      </c>
-    </row>
-    <row r="91">
+        <v>1985</v>
+      </c>
+      <c r="F90" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
-        <v>90.0</v>
+        <v>90</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>120</v>
@@ -2255,15 +2649,19 @@
         <v>8</v>
       </c>
       <c r="D91" s="2">
-        <v>2659.0</v>
+        <v>2659</v>
       </c>
       <c r="E91" s="2">
-        <v>1991.0</v>
-      </c>
-    </row>
-    <row r="92">
+        <v>1991</v>
+      </c>
+      <c r="F91" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="2">
-        <v>91.0</v>
+        <v>91</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>121</v>
@@ -2272,15 +2670,19 @@
         <v>122</v>
       </c>
       <c r="D92" s="2">
-        <v>2657.0</v>
+        <v>2657</v>
       </c>
       <c r="E92" s="2">
-        <v>1993.0</v>
-      </c>
-    </row>
-    <row r="93">
+        <v>1993</v>
+      </c>
+      <c r="F92" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="2">
-        <v>92.0</v>
+        <v>92</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>123</v>
@@ -2289,15 +2691,19 @@
         <v>45</v>
       </c>
       <c r="D93" s="2">
-        <v>2655.0</v>
+        <v>2655</v>
       </c>
       <c r="E93" s="2">
-        <v>2001.0</v>
-      </c>
-    </row>
-    <row r="94">
+        <v>2001</v>
+      </c>
+      <c r="F93" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="2">
-        <v>93.0</v>
+        <v>93</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>124</v>
@@ -2306,15 +2712,19 @@
         <v>52</v>
       </c>
       <c r="D94" s="2">
-        <v>2654.0</v>
+        <v>2654</v>
       </c>
       <c r="E94" s="2">
-        <v>2005.0</v>
-      </c>
-    </row>
-    <row r="95">
+        <v>2005</v>
+      </c>
+      <c r="F94" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="2">
-        <v>94.0</v>
+        <v>94</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>125</v>
@@ -2323,15 +2733,19 @@
         <v>126</v>
       </c>
       <c r="D95" s="2">
-        <v>2651.0</v>
+        <v>2651</v>
       </c>
       <c r="E95" s="2">
-        <v>1995.0</v>
-      </c>
-    </row>
-    <row r="96">
+        <v>1995</v>
+      </c>
+      <c r="F95" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="2">
-        <v>95.0</v>
+        <v>95</v>
       </c>
       <c r="B96" s="2" t="s">
         <v>127</v>
@@ -2340,15 +2754,19 @@
         <v>65</v>
       </c>
       <c r="D96" s="2">
-        <v>2651.0</v>
+        <v>2651</v>
       </c>
       <c r="E96" s="2">
-        <v>1997.0</v>
-      </c>
-    </row>
-    <row r="97">
+        <v>1997</v>
+      </c>
+      <c r="F96" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" s="2">
-        <v>96.0</v>
+        <v>96</v>
       </c>
       <c r="B97" s="2" t="s">
         <v>128</v>
@@ -2357,15 +2775,19 @@
         <v>34</v>
       </c>
       <c r="D97" s="2">
-        <v>2650.0</v>
+        <v>2650</v>
       </c>
       <c r="E97" s="2">
-        <v>1980.0</v>
-      </c>
-    </row>
-    <row r="98">
+        <v>1980</v>
+      </c>
+      <c r="F97" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" s="2">
-        <v>97.0</v>
+        <v>97</v>
       </c>
       <c r="B98" s="2" t="s">
         <v>129</v>
@@ -2374,15 +2796,19 @@
         <v>57</v>
       </c>
       <c r="D98" s="2">
-        <v>2649.0</v>
+        <v>2649</v>
       </c>
       <c r="E98" s="2">
-        <v>2002.0</v>
-      </c>
-    </row>
-    <row r="99">
+        <v>2002</v>
+      </c>
+      <c r="F98" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" s="2">
-        <v>98.0</v>
+        <v>98</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>130</v>
@@ -2391,15 +2817,19 @@
         <v>57</v>
       </c>
       <c r="D99" s="2">
-        <v>2649.0</v>
+        <v>2649</v>
       </c>
       <c r="E99" s="2">
-        <v>1986.0</v>
-      </c>
-    </row>
-    <row r="100">
+        <v>1986</v>
+      </c>
+      <c r="F99" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" s="2">
-        <v>99.0</v>
+        <v>99</v>
       </c>
       <c r="B100" s="2" t="s">
         <v>131</v>
@@ -2408,15 +2838,19 @@
         <v>14</v>
       </c>
       <c r="D100" s="2">
-        <v>2646.0</v>
+        <v>2646</v>
       </c>
       <c r="E100" s="2">
-        <v>1994.0</v>
-      </c>
-    </row>
-    <row r="101">
+        <v>1994</v>
+      </c>
+      <c r="F100" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" s="2">
-        <v>100.0</v>
+        <v>100</v>
       </c>
       <c r="B101" s="2" t="s">
         <v>132</v>
@@ -2425,15 +2859,19 @@
         <v>23</v>
       </c>
       <c r="D101" s="2">
-        <v>2646.0</v>
+        <v>2646</v>
       </c>
       <c r="E101" s="2">
-        <v>1988.0</v>
-      </c>
-    </row>
-    <row r="102">
+        <v>1988</v>
+      </c>
+      <c r="F101" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" s="2">
-        <v>101.0</v>
+        <v>101</v>
       </c>
       <c r="B102" s="2" t="s">
         <v>133</v>
@@ -2442,15 +2880,19 @@
         <v>12</v>
       </c>
       <c r="D102" s="2">
-        <v>2646.0</v>
+        <v>2646</v>
       </c>
       <c r="E102" s="2">
-        <v>1983.0</v>
-      </c>
-    </row>
-    <row r="103">
+        <v>1983</v>
+      </c>
+      <c r="F102" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" s="2">
-        <v>102.0</v>
+        <v>102</v>
       </c>
       <c r="B103" s="2" t="s">
         <v>134</v>
@@ -2459,117 +2901,121 @@
         <v>23</v>
       </c>
       <c r="D103" s="2">
-        <v>2646.0</v>
+        <v>2646</v>
       </c>
       <c r="E103" s="2">
-        <v>1995.0</v>
+        <v>1995</v>
+      </c>
+      <c r="F103" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="B2"/>
-    <hyperlink r:id="rId2" ref="B3"/>
-    <hyperlink r:id="rId3" ref="B4"/>
-    <hyperlink r:id="rId4" ref="B5"/>
-    <hyperlink r:id="rId5" ref="B6"/>
-    <hyperlink r:id="rId6" ref="B7"/>
-    <hyperlink r:id="rId7" ref="B8"/>
-    <hyperlink r:id="rId8" ref="B9"/>
-    <hyperlink r:id="rId9" ref="B10"/>
-    <hyperlink r:id="rId10" ref="B11"/>
-    <hyperlink r:id="rId11" ref="B12"/>
-    <hyperlink r:id="rId12" ref="B13"/>
-    <hyperlink r:id="rId13" ref="B14"/>
-    <hyperlink r:id="rId14" ref="B15"/>
-    <hyperlink r:id="rId15" ref="B16"/>
-    <hyperlink r:id="rId16" ref="B17"/>
-    <hyperlink r:id="rId17" ref="B18"/>
-    <hyperlink r:id="rId18" ref="B19"/>
-    <hyperlink r:id="rId19" ref="B20"/>
-    <hyperlink r:id="rId20" ref="B21"/>
-    <hyperlink r:id="rId21" ref="B22"/>
-    <hyperlink r:id="rId22" ref="B23"/>
-    <hyperlink r:id="rId23" ref="B24"/>
-    <hyperlink r:id="rId24" ref="B25"/>
-    <hyperlink r:id="rId25" ref="B26"/>
-    <hyperlink r:id="rId26" ref="B27"/>
-    <hyperlink r:id="rId27" ref="B28"/>
-    <hyperlink r:id="rId28" ref="B29"/>
-    <hyperlink r:id="rId29" ref="B30"/>
-    <hyperlink r:id="rId30" ref="B31"/>
-    <hyperlink r:id="rId31" ref="B32"/>
-    <hyperlink r:id="rId32" ref="B33"/>
-    <hyperlink r:id="rId33" ref="B34"/>
-    <hyperlink r:id="rId34" ref="B35"/>
-    <hyperlink r:id="rId35" ref="B36"/>
-    <hyperlink r:id="rId36" ref="B37"/>
-    <hyperlink r:id="rId37" ref="B38"/>
-    <hyperlink r:id="rId38" ref="B39"/>
-    <hyperlink r:id="rId39" ref="B40"/>
-    <hyperlink r:id="rId40" ref="B41"/>
-    <hyperlink r:id="rId41" ref="B42"/>
-    <hyperlink r:id="rId42" ref="B43"/>
-    <hyperlink r:id="rId43" ref="B44"/>
-    <hyperlink r:id="rId44" ref="B45"/>
-    <hyperlink r:id="rId45" ref="B46"/>
-    <hyperlink r:id="rId46" ref="B47"/>
-    <hyperlink r:id="rId47" ref="B48"/>
-    <hyperlink r:id="rId48" ref="B49"/>
-    <hyperlink r:id="rId49" ref="B50"/>
-    <hyperlink r:id="rId50" ref="B51"/>
-    <hyperlink r:id="rId51" ref="B52"/>
-    <hyperlink r:id="rId52" ref="B53"/>
-    <hyperlink r:id="rId53" ref="B54"/>
-    <hyperlink r:id="rId54" ref="B55"/>
-    <hyperlink r:id="rId55" ref="B56"/>
-    <hyperlink r:id="rId56" ref="B57"/>
-    <hyperlink r:id="rId57" ref="B58"/>
-    <hyperlink r:id="rId58" ref="B59"/>
-    <hyperlink r:id="rId59" ref="B60"/>
-    <hyperlink r:id="rId60" ref="B61"/>
-    <hyperlink r:id="rId61" ref="B62"/>
-    <hyperlink r:id="rId62" ref="B63"/>
-    <hyperlink r:id="rId63" ref="B64"/>
-    <hyperlink r:id="rId64" ref="B65"/>
-    <hyperlink r:id="rId65" ref="B66"/>
-    <hyperlink r:id="rId66" ref="B67"/>
-    <hyperlink r:id="rId67" ref="B68"/>
-    <hyperlink r:id="rId68" ref="B69"/>
-    <hyperlink r:id="rId69" ref="B70"/>
-    <hyperlink r:id="rId70" ref="B71"/>
-    <hyperlink r:id="rId71" ref="B72"/>
-    <hyperlink r:id="rId72" ref="B73"/>
-    <hyperlink r:id="rId73" ref="B74"/>
-    <hyperlink r:id="rId74" ref="B75"/>
-    <hyperlink r:id="rId75" ref="B76"/>
-    <hyperlink r:id="rId76" ref="B77"/>
-    <hyperlink r:id="rId77" ref="B78"/>
-    <hyperlink r:id="rId78" ref="B79"/>
-    <hyperlink r:id="rId79" ref="B80"/>
-    <hyperlink r:id="rId80" ref="B81"/>
-    <hyperlink r:id="rId81" ref="B82"/>
-    <hyperlink r:id="rId82" ref="B83"/>
-    <hyperlink r:id="rId83" ref="B84"/>
-    <hyperlink r:id="rId84" ref="B85"/>
-    <hyperlink r:id="rId85" ref="B86"/>
-    <hyperlink r:id="rId86" ref="B87"/>
-    <hyperlink r:id="rId87" ref="B88"/>
-    <hyperlink r:id="rId88" ref="B89"/>
-    <hyperlink r:id="rId89" ref="B90"/>
-    <hyperlink r:id="rId90" ref="B91"/>
-    <hyperlink r:id="rId91" ref="B92"/>
-    <hyperlink r:id="rId92" ref="B93"/>
-    <hyperlink r:id="rId93" ref="B94"/>
-    <hyperlink r:id="rId94" ref="B95"/>
-    <hyperlink r:id="rId95" ref="B96"/>
-    <hyperlink r:id="rId96" ref="B97"/>
-    <hyperlink r:id="rId97" ref="B98"/>
-    <hyperlink r:id="rId98" ref="B99"/>
-    <hyperlink r:id="rId99" ref="B100"/>
-    <hyperlink r:id="rId100" ref="B101"/>
-    <hyperlink r:id="rId101" ref="B102"/>
-    <hyperlink r:id="rId102" ref="B103"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="B5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="B6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="B7" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="B8" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="B9" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="B10" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="B11" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="B12" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="B13" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="B14" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="B15" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="B16" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="B17" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="B18" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="B19" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="B20" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="B21" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="B22" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="B23" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="B24" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="B25" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="B26" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="B27" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="B28" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="B29" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="B30" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="B31" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="B32" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="B33" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="B34" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="B35" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="B36" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="B37" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="B38" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="B39" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="B40" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="B41" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="B42" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="B43" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="B44" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="B45" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="B46" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="B47" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="B48" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="B49" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="B50" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="B51" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="B52" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="B53" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="B54" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="B55" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="B56" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="B57" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="B58" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="B59" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="B60" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="B61" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="B62" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="B63" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="B64" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="B65" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="B66" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="B67" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="B68" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="B69" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="B70" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="B71" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="B72" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="B73" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="B74" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="B75" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="B76" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="B77" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
+    <hyperlink ref="B78" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
+    <hyperlink ref="B79" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
+    <hyperlink ref="B80" r:id="rId79" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
+    <hyperlink ref="B81" r:id="rId80" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
+    <hyperlink ref="B82" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
+    <hyperlink ref="B83" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
+    <hyperlink ref="B84" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
+    <hyperlink ref="B85" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
+    <hyperlink ref="B86" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
+    <hyperlink ref="B87" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
+    <hyperlink ref="B88" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
+    <hyperlink ref="B89" r:id="rId88" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
+    <hyperlink ref="B90" r:id="rId89" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
+    <hyperlink ref="B91" r:id="rId90" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
+    <hyperlink ref="B92" r:id="rId91" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
+    <hyperlink ref="B93" r:id="rId92" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
+    <hyperlink ref="B94" r:id="rId93" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
+    <hyperlink ref="B95" r:id="rId94" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
+    <hyperlink ref="B96" r:id="rId95" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
+    <hyperlink ref="B97" r:id="rId96" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
+    <hyperlink ref="B98" r:id="rId97" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
+    <hyperlink ref="B99" r:id="rId98" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
+    <hyperlink ref="B100" r:id="rId99" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
+    <hyperlink ref="B101" r:id="rId100" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
+    <hyperlink ref="B102" r:id="rId101" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
+    <hyperlink ref="B103" r:id="rId102" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
   </hyperlinks>
-  <drawing r:id="rId103"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>